--- a/Data/EC/NIT-8002409488.xlsx
+++ b/Data/EC/NIT-8002409488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBEFA42-C99F-4B0F-A8AD-6810A12A9A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAB1702-C268-488B-8095-C8CDA09DB67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37EC3C75-B4ED-4B8D-AFE4-21ACC046CC64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE13BF61-A0BF-4900-A445-FF6EEEB61F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>LENIS RAMIREZ VALDELAMAR</t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -488,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0680FC4-186B-AC49-30E7-D78130C09CDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E0B2A6-9756-7D30-A9DF-82A17F91DAC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E90FD66-A32D-41D8-8E78-CB33FB3E00B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538C122-8FC6-411E-8AD8-0C2A29976AF1}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">

--- a/Data/EC/NIT-8002409488.xlsx
+++ b/Data/EC/NIT-8002409488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFF4000-F22D-465B-A929-F6AC96DBBE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B4AA05-B78A-4621-9F45-90E4F691AEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACC8805D-5E43-4379-AE44-D489F689418E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21B117A5-B4D8-41B0-AC6E-0BAE026E0EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -173,22 +173,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -382,29 +382,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,19 +423,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +494,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31310BD1-5F1D-7DA6-C136-2F6E6176C235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C1084D-8AFA-E006-3879-5BC85C987318}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E628BA-091E-4EDF-9B23-F3377D87E620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360BCFE5-9B1D-4331-87BD-C90C7DE03C64}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -862,49 +868,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -912,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -928,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8002409488</v>
       </c>
@@ -944,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>62498</v>
       </c>
@@ -1013,47 +1019,47 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="26">
         <v>31249</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="26">
         <v>781242</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1061,10 +1067,10 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="34"/>
       <c r="H23" s="1" t="s">
         <v>23</v>
       </c>
